--- a/biology/Médecine/Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène/Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène.xlsx
+++ b/biology/Médecine/Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène/Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_aux_d%C3%A9riv%C3%A9s_nitr%C3%A9s_et_chloronitr%C3%A9s_du_benz%C3%A8ne</t>
+          <t>Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication aux dérivés nitrés et chloronitrés du benzène soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_aux_d%C3%A9riv%C3%A9s_nitr%C3%A9s_et_chloronitr%C3%A9s_du_benz%C3%A8ne</t>
+          <t>Intoxication_aux_dérivés_nitrés_et_chloronitrés_du_benzène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
